--- a/Calculs/PH2/DataBase_PH2_Divers_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_Divers_V6_results.xlsx
@@ -9743,7 +9743,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
         <v>6.48</v>
@@ -9902,7 +9902,7 @@
         <v>50.3</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
         <v>52.17</v>
@@ -10061,7 +10061,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
         <v>2.34</v>
@@ -10220,7 +10220,7 @@
         <v>31.7</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB62" t="n">
         <v>28.83</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Travée 1</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -10612,7 +10612,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Travée 6</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -11625,7 +11625,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB71" t="n">
         <v>6.48</v>
@@ -11784,7 +11784,7 @@
         <v>50.3</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="n">
         <v>52.17</v>
@@ -11943,7 +11943,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
         <v>2.34</v>
@@ -12102,7 +12102,7 @@
         <v>31.7</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
         <v>28.83</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Travée 1</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Travée 6</t>
         </is>
       </c>
       <c r="D92" t="n">
